--- a/data/pca/factorExposure/factorExposure_2009-08-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01774857765471662</v>
+        <v>0.01669609266593102</v>
       </c>
       <c r="C2">
-        <v>-0.001541824810229625</v>
+        <v>0.000918750364027362</v>
       </c>
       <c r="D2">
-        <v>0.003736692324217999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009612698971367415</v>
+      </c>
+      <c r="E2">
+        <v>0.002263750503747626</v>
+      </c>
+      <c r="F2">
+        <v>0.01306260110611078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09585711260094995</v>
+        <v>0.09386316021577353</v>
       </c>
       <c r="C4">
-        <v>-0.02086789590584812</v>
+        <v>0.01487226459353415</v>
       </c>
       <c r="D4">
-        <v>0.06520183418547409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0833802034462907</v>
+      </c>
+      <c r="E4">
+        <v>0.02901049060246884</v>
+      </c>
+      <c r="F4">
+        <v>-0.03258449873032424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1489918713609135</v>
+        <v>0.1595194905861765</v>
       </c>
       <c r="C6">
-        <v>-0.0270835075177009</v>
+        <v>0.02706915754181828</v>
       </c>
       <c r="D6">
-        <v>-0.02511841906969199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02589855993296282</v>
+      </c>
+      <c r="E6">
+        <v>0.008669510931717783</v>
+      </c>
+      <c r="F6">
+        <v>-0.04146562244691195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06345720585811661</v>
+        <v>0.06350173421964558</v>
       </c>
       <c r="C7">
-        <v>-0.003077524624713526</v>
+        <v>-0.001640128507942826</v>
       </c>
       <c r="D7">
-        <v>0.03947046244925591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05243286675871931</v>
+      </c>
+      <c r="E7">
+        <v>0.01218433254748483</v>
+      </c>
+      <c r="F7">
+        <v>-0.04693231162033252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06312811345015933</v>
+        <v>0.0577349182595305</v>
       </c>
       <c r="C8">
-        <v>0.009704364741867534</v>
+        <v>-0.01310896750243458</v>
       </c>
       <c r="D8">
-        <v>0.01782839127031642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0323290569686928</v>
+      </c>
+      <c r="E8">
+        <v>0.01812080161572669</v>
+      </c>
+      <c r="F8">
+        <v>0.02668069005426579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07398819140029417</v>
+        <v>0.07081634654825944</v>
       </c>
       <c r="C9">
-        <v>-0.01714764610550841</v>
+        <v>0.01038386687204466</v>
       </c>
       <c r="D9">
-        <v>0.06787875701681081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0874000015549648</v>
+      </c>
+      <c r="E9">
+        <v>0.02429467048926769</v>
+      </c>
+      <c r="F9">
+        <v>-0.04653883371257277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08176222127576092</v>
+        <v>0.09044514556610916</v>
       </c>
       <c r="C10">
-        <v>-0.01212974659290882</v>
+        <v>0.02061884369121438</v>
       </c>
       <c r="D10">
-        <v>-0.1665664063260545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1640623892329382</v>
+      </c>
+      <c r="E10">
+        <v>-0.03314474932913977</v>
+      </c>
+      <c r="F10">
+        <v>0.05687571249523996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09384478495556725</v>
+        <v>0.08846437974543708</v>
       </c>
       <c r="C11">
-        <v>-0.01820206783939619</v>
+        <v>0.01057413359899281</v>
       </c>
       <c r="D11">
-        <v>0.09389926992356271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1168672638499143</v>
+      </c>
+      <c r="E11">
+        <v>0.04650375043989111</v>
+      </c>
+      <c r="F11">
+        <v>-0.02245919235891804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.100076407436384</v>
+        <v>0.0920286184012984</v>
       </c>
       <c r="C12">
-        <v>-0.01596911537800971</v>
+        <v>0.007905544594667064</v>
       </c>
       <c r="D12">
-        <v>0.0974113903914343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1315219566600879</v>
+      </c>
+      <c r="E12">
+        <v>0.04597347190649881</v>
+      </c>
+      <c r="F12">
+        <v>-0.03113930369619973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04293637873027904</v>
+        <v>0.04147177654500439</v>
       </c>
       <c r="C13">
-        <v>-0.006261874162443429</v>
+        <v>0.002463690173422629</v>
       </c>
       <c r="D13">
-        <v>0.03055386389851941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05284961790793762</v>
+      </c>
+      <c r="E13">
+        <v>-0.004303798455417205</v>
+      </c>
+      <c r="F13">
+        <v>-0.001048616161026646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02017664865457262</v>
+        <v>0.02415245617963773</v>
       </c>
       <c r="C14">
-        <v>-0.01532221938037302</v>
+        <v>0.01390172583745616</v>
       </c>
       <c r="D14">
-        <v>0.02341313035179532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03349004454125908</v>
+      </c>
+      <c r="E14">
+        <v>0.01903978437598003</v>
+      </c>
+      <c r="F14">
+        <v>-0.01393083822496207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03516327232562075</v>
+        <v>0.0331494315353927</v>
       </c>
       <c r="C15">
-        <v>-0.007927038457212269</v>
+        <v>0.004752641644913763</v>
       </c>
       <c r="D15">
-        <v>0.02922241959691517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04518881356859137</v>
+      </c>
+      <c r="E15">
+        <v>0.006153853897361524</v>
+      </c>
+      <c r="F15">
+        <v>-0.0254216379039299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07994841378291591</v>
+        <v>0.07451003254894002</v>
       </c>
       <c r="C16">
-        <v>-0.008771124265601272</v>
+        <v>0.001171396945193975</v>
       </c>
       <c r="D16">
-        <v>0.09714001318604151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1275954380385435</v>
+      </c>
+      <c r="E16">
+        <v>0.06094528312640918</v>
+      </c>
+      <c r="F16">
+        <v>-0.02774432779351742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007879537784114921</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002074376488907655</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001566418208652598</v>
+      </c>
+      <c r="E17">
+        <v>0.000980861656997879</v>
+      </c>
+      <c r="F17">
+        <v>0.002281934562318018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01725149583271023</v>
+        <v>0.03647971841513117</v>
       </c>
       <c r="C18">
-        <v>0.003103538584578277</v>
+        <v>-0.002893730835356394</v>
       </c>
       <c r="D18">
-        <v>0.03043493931732914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01555155148435336</v>
+      </c>
+      <c r="E18">
+        <v>-0.008865018944400801</v>
+      </c>
+      <c r="F18">
+        <v>0.008488313172795114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06627764014826011</v>
+        <v>0.06237810810604189</v>
       </c>
       <c r="C20">
-        <v>-0.006644050256267252</v>
+        <v>0.0003110695079818913</v>
       </c>
       <c r="D20">
-        <v>0.04932439834330213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07698373131273244</v>
+      </c>
+      <c r="E20">
+        <v>0.05577596565998702</v>
+      </c>
+      <c r="F20">
+        <v>-0.02956826354824805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04200286548074818</v>
+        <v>0.04084163121189227</v>
       </c>
       <c r="C21">
-        <v>-0.01003520975098952</v>
+        <v>0.006534987884152401</v>
       </c>
       <c r="D21">
-        <v>0.02685427743811673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03885761983795114</v>
+      </c>
+      <c r="E21">
+        <v>-0.0003915220053952148</v>
+      </c>
+      <c r="F21">
+        <v>0.02450126151983811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04063557128640213</v>
+        <v>0.04333708369509812</v>
       </c>
       <c r="C22">
-        <v>-0.0007682164226507197</v>
+        <v>0.0005698862332820146</v>
       </c>
       <c r="D22">
-        <v>-0.01121706930928089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003488563084009029</v>
+      </c>
+      <c r="E22">
+        <v>0.03622912120798769</v>
+      </c>
+      <c r="F22">
+        <v>0.03824708247881543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04059852890761247</v>
+        <v>0.04331282183475875</v>
       </c>
       <c r="C23">
-        <v>-0.0007587083491091589</v>
+        <v>0.0005614014878724441</v>
       </c>
       <c r="D23">
-        <v>-0.01119729497510075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003503920836715656</v>
+      </c>
+      <c r="E23">
+        <v>0.03641221047068783</v>
+      </c>
+      <c r="F23">
+        <v>0.03820766185248666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08516791630928174</v>
+        <v>0.08030341212906</v>
       </c>
       <c r="C24">
-        <v>-0.009205368025000837</v>
+        <v>0.001895641122848484</v>
       </c>
       <c r="D24">
-        <v>0.1019645382582959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.11999283140931</v>
+      </c>
+      <c r="E24">
+        <v>0.04883493344491031</v>
+      </c>
+      <c r="F24">
+        <v>-0.02938649188963821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08986697593938248</v>
+        <v>0.0848955261631715</v>
       </c>
       <c r="C25">
-        <v>-0.01159497874406162</v>
+        <v>0.004372991817673109</v>
       </c>
       <c r="D25">
-        <v>0.08859738679338347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095702039148635</v>
+      </c>
+      <c r="E25">
+        <v>0.03224328437944533</v>
+      </c>
+      <c r="F25">
+        <v>-0.02682114663334152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0583272281109379</v>
+        <v>0.05915344599504647</v>
       </c>
       <c r="C26">
-        <v>-0.01816057994131679</v>
+        <v>0.01462310859679637</v>
       </c>
       <c r="D26">
-        <v>0.01789126537592324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04165279212432928</v>
+      </c>
+      <c r="E26">
+        <v>0.02956346535306924</v>
+      </c>
+      <c r="F26">
+        <v>0.005824010668521462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.129583653507328</v>
+        <v>0.1409431596238862</v>
       </c>
       <c r="C28">
-        <v>-0.01047277010021441</v>
+        <v>0.0219359291996505</v>
       </c>
       <c r="D28">
-        <v>-0.27354006504504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2604505816003149</v>
+      </c>
+      <c r="E28">
+        <v>-0.06747404373024164</v>
+      </c>
+      <c r="F28">
+        <v>-0.004020728721110206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02628109501172815</v>
+        <v>0.0288804890169658</v>
       </c>
       <c r="C29">
-        <v>-0.0100450420771004</v>
+        <v>0.008831645266403294</v>
       </c>
       <c r="D29">
-        <v>0.02052759719682777</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03121382766849443</v>
+      </c>
+      <c r="E29">
+        <v>0.01408834140410529</v>
+      </c>
+      <c r="F29">
+        <v>0.01248275082132097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06801354277469034</v>
+        <v>0.05932912243269978</v>
       </c>
       <c r="C30">
-        <v>-0.01044482349966272</v>
+        <v>0.002840947746340722</v>
       </c>
       <c r="D30">
-        <v>0.05935764162475193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08804362048757786</v>
+      </c>
+      <c r="E30">
+        <v>0.01432395513357883</v>
+      </c>
+      <c r="F30">
+        <v>-0.07932429139285337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05112286625173004</v>
+        <v>0.05140327033331607</v>
       </c>
       <c r="C31">
-        <v>-0.01689017553980904</v>
+        <v>0.01571309325977623</v>
       </c>
       <c r="D31">
-        <v>0.02046953648165652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02413345708527903</v>
+      </c>
+      <c r="E31">
+        <v>0.02882787001603607</v>
+      </c>
+      <c r="F31">
+        <v>0.001086072146134779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04820546776517837</v>
+        <v>0.05153096973808643</v>
       </c>
       <c r="C32">
-        <v>-0.002255796728275551</v>
+        <v>-0.001724780609568065</v>
       </c>
       <c r="D32">
-        <v>0.01879954625427641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03614379215452978</v>
+      </c>
+      <c r="E32">
+        <v>0.03453084688926764</v>
+      </c>
+      <c r="F32">
+        <v>-0.004249777674501987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09470353683016546</v>
+        <v>0.08884383268855733</v>
       </c>
       <c r="C33">
-        <v>-0.01407584595562502</v>
+        <v>0.00665255156073421</v>
       </c>
       <c r="D33">
-        <v>0.07524137267281211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.102989235149993</v>
+      </c>
+      <c r="E33">
+        <v>0.04522511475960228</v>
+      </c>
+      <c r="F33">
+        <v>-0.03901546676437978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07247775156509612</v>
+        <v>0.06838664498198685</v>
       </c>
       <c r="C34">
-        <v>-0.01618902843674842</v>
+        <v>0.01022276296346155</v>
       </c>
       <c r="D34">
-        <v>0.08222056304573262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1096793707920591</v>
+      </c>
+      <c r="E34">
+        <v>0.03515795862685239</v>
+      </c>
+      <c r="F34">
+        <v>-0.03329093706932845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02392382989009571</v>
+        <v>0.02544894269317039</v>
       </c>
       <c r="C35">
-        <v>-0.002893920505011204</v>
+        <v>0.002616039443999514</v>
       </c>
       <c r="D35">
-        <v>0.00600891588789939</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01206224928892523</v>
+      </c>
+      <c r="E35">
+        <v>0.01276696410738485</v>
+      </c>
+      <c r="F35">
+        <v>-0.001451883205081347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02748336441100487</v>
+        <v>0.02772186518594986</v>
       </c>
       <c r="C36">
-        <v>-0.008043741063381661</v>
+        <v>0.006897651663201627</v>
       </c>
       <c r="D36">
-        <v>0.03836027783706359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03990878986302423</v>
+      </c>
+      <c r="E36">
+        <v>0.01702112323674248</v>
+      </c>
+      <c r="F36">
+        <v>-0.01472408318048438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0003511280142446073</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005399039322558015</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002249359883761173</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007556267539692397</v>
+      </c>
+      <c r="F37">
+        <v>0.001702851688772741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1182540346365242</v>
+        <v>0.1045121298132012</v>
       </c>
       <c r="C39">
-        <v>-0.0246882953063502</v>
+        <v>0.01584414791601196</v>
       </c>
       <c r="D39">
-        <v>0.1379280362110071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1542382085195728</v>
+      </c>
+      <c r="E39">
+        <v>0.05979073060384173</v>
+      </c>
+      <c r="F39">
+        <v>-0.03030145761159972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03994668986040287</v>
+        <v>0.04142250471013779</v>
       </c>
       <c r="C40">
-        <v>-0.01013089990167714</v>
+        <v>0.007202082278867966</v>
       </c>
       <c r="D40">
-        <v>0.006355477066111982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02995714248858987</v>
+      </c>
+      <c r="E40">
+        <v>0.0009412201895726628</v>
+      </c>
+      <c r="F40">
+        <v>0.01872256367740702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0250343292787723</v>
+        <v>0.02773005676333224</v>
       </c>
       <c r="C41">
-        <v>-0.007124744329177312</v>
+        <v>0.00684477960098643</v>
       </c>
       <c r="D41">
-        <v>0.009558274237927494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01049106002680125</v>
+      </c>
+      <c r="E41">
+        <v>0.01210643166697973</v>
+      </c>
+      <c r="F41">
+        <v>0.005547974858403921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04188443057467801</v>
+        <v>0.04091503969408768</v>
       </c>
       <c r="C43">
-        <v>-0.008375746349118368</v>
+        <v>0.007128880627654318</v>
       </c>
       <c r="D43">
-        <v>0.01231063195795551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01852896418039983</v>
+      </c>
+      <c r="E43">
+        <v>0.02556051168495726</v>
+      </c>
+      <c r="F43">
+        <v>0.01257762996111999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0773155028076304</v>
+        <v>0.08031274120783236</v>
       </c>
       <c r="C44">
-        <v>-0.02721780760129575</v>
+        <v>0.01948571039920247</v>
       </c>
       <c r="D44">
-        <v>0.07625656757172172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0976212683793512</v>
+      </c>
+      <c r="E44">
+        <v>0.06235189347242752</v>
+      </c>
+      <c r="F44">
+        <v>-0.1600995051462276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01962408131903047</v>
+        <v>0.02331921489537672</v>
       </c>
       <c r="C46">
-        <v>-0.003838095390333906</v>
+        <v>0.003335215171433264</v>
       </c>
       <c r="D46">
-        <v>0.006828897048009596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0126603698615457</v>
+      </c>
+      <c r="E46">
+        <v>0.02584035115052264</v>
+      </c>
+      <c r="F46">
+        <v>0.00699046530076243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05335709023648803</v>
+        <v>0.05275315459001207</v>
       </c>
       <c r="C47">
-        <v>-0.004499284189728022</v>
+        <v>0.003861553324071761</v>
       </c>
       <c r="D47">
-        <v>0.006564012155242132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01130924814489705</v>
+      </c>
+      <c r="E47">
+        <v>0.0234114301949864</v>
+      </c>
+      <c r="F47">
+        <v>0.03273625691812334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0494232600122399</v>
+        <v>0.05000815574250646</v>
       </c>
       <c r="C48">
-        <v>-0.005241129908175424</v>
+        <v>0.00218828128324936</v>
       </c>
       <c r="D48">
-        <v>0.04108816915392617</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05093664869364026</v>
+      </c>
+      <c r="E48">
+        <v>-0.004631082576021043</v>
+      </c>
+      <c r="F48">
+        <v>-0.009655831264808614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2014674470766006</v>
+        <v>0.1994916293669897</v>
       </c>
       <c r="C49">
-        <v>-0.02046813263691665</v>
+        <v>0.01898056817166335</v>
       </c>
       <c r="D49">
-        <v>-0.01875308347516492</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006721538123115574</v>
+      </c>
+      <c r="E49">
+        <v>0.03049407046413444</v>
+      </c>
+      <c r="F49">
+        <v>-0.04067680145424402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05006125893053971</v>
+        <v>0.05185613908898531</v>
       </c>
       <c r="C50">
-        <v>-0.01287266050856585</v>
+        <v>0.0114360859227171</v>
       </c>
       <c r="D50">
-        <v>0.01971060861931507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0233663058604506</v>
+      </c>
+      <c r="E50">
+        <v>0.02994959294953434</v>
+      </c>
+      <c r="F50">
+        <v>-0.009758128828879786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1554257783129846</v>
+        <v>0.1497773502167725</v>
       </c>
       <c r="C52">
-        <v>-0.0191321504532244</v>
+        <v>0.01788757630064934</v>
       </c>
       <c r="D52">
-        <v>0.04990378767975406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04059000277047602</v>
+      </c>
+      <c r="E52">
+        <v>0.02051683987276572</v>
+      </c>
+      <c r="F52">
+        <v>-0.04346668481805026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1723496132859437</v>
+        <v>0.1716619488909684</v>
       </c>
       <c r="C53">
-        <v>-0.01888469528037961</v>
+        <v>0.02022404077328832</v>
       </c>
       <c r="D53">
-        <v>0.01505724824238308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.002774147394535962</v>
+      </c>
+      <c r="E53">
+        <v>0.02776544471359799</v>
+      </c>
+      <c r="F53">
+        <v>-0.07307030198705315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01779040561254351</v>
+        <v>0.02071140041210752</v>
       </c>
       <c r="C54">
-        <v>-0.01282127066928951</v>
+        <v>0.01122641852664399</v>
       </c>
       <c r="D54">
-        <v>0.02668816979507785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03448688240050803</v>
+      </c>
+      <c r="E54">
+        <v>0.02226292064760915</v>
+      </c>
+      <c r="F54">
+        <v>0.002954201585231284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1141947562824377</v>
+        <v>0.1151229310360217</v>
       </c>
       <c r="C55">
-        <v>-0.01723575595890481</v>
+        <v>0.0177700153228486</v>
       </c>
       <c r="D55">
-        <v>0.01293674852961981</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006168361021126828</v>
+      </c>
+      <c r="E55">
+        <v>0.02323899675902765</v>
+      </c>
+      <c r="F55">
+        <v>-0.04676030701381458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1787266768831047</v>
+        <v>0.1772602322345362</v>
       </c>
       <c r="C56">
-        <v>-0.01638690055139053</v>
+        <v>0.01811208440686817</v>
       </c>
       <c r="D56">
-        <v>0.01045648892805517</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.005047620404845258</v>
+      </c>
+      <c r="E56">
+        <v>0.03115639061653602</v>
+      </c>
+      <c r="F56">
+        <v>-0.05355665107898196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04957369082767921</v>
+        <v>0.04476737343695568</v>
       </c>
       <c r="C58">
-        <v>-0.005782041316427762</v>
+        <v>-0.0003412892537881669</v>
       </c>
       <c r="D58">
-        <v>0.05355638006755355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07134137859275437</v>
+      </c>
+      <c r="E58">
+        <v>0.03265224355141799</v>
+      </c>
+      <c r="F58">
+        <v>0.03590921258057461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1596222753910336</v>
+        <v>0.1664541219568431</v>
       </c>
       <c r="C59">
-        <v>-0.01228297574878335</v>
+        <v>0.02228588418514296</v>
       </c>
       <c r="D59">
-        <v>-0.2254940604562223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2178421355632237</v>
+      </c>
+      <c r="E59">
+        <v>-0.04718125676978679</v>
+      </c>
+      <c r="F59">
+        <v>0.0346142782915814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2377710475600144</v>
+        <v>0.232036911974596</v>
       </c>
       <c r="C60">
-        <v>-0.0004364356097295462</v>
+        <v>-0.001792937468196015</v>
       </c>
       <c r="D60">
-        <v>0.04455494213460299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03748698841619977</v>
+      </c>
+      <c r="E60">
+        <v>0.005911777836443321</v>
+      </c>
+      <c r="F60">
+        <v>5.283244758610635e-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08908794350036847</v>
+        <v>0.08025435028922194</v>
       </c>
       <c r="C61">
-        <v>-0.01844458089945518</v>
+        <v>0.01137013040265176</v>
       </c>
       <c r="D61">
-        <v>0.09559770198982873</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175253782065955</v>
+      </c>
+      <c r="E61">
+        <v>0.03937226624971343</v>
+      </c>
+      <c r="F61">
+        <v>-0.01300719441213315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1703518119776869</v>
+        <v>0.1692621185861022</v>
       </c>
       <c r="C62">
-        <v>-0.02053433122481356</v>
+        <v>0.02092892089187514</v>
       </c>
       <c r="D62">
-        <v>0.006612856372531183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.003610630502684778</v>
+      </c>
+      <c r="E62">
+        <v>0.03187585899173071</v>
+      </c>
+      <c r="F62">
+        <v>-0.0366155704866176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04469136823882917</v>
+        <v>0.04598420304683754</v>
       </c>
       <c r="C63">
-        <v>-0.006124306392860886</v>
+        <v>0.001831656648055445</v>
       </c>
       <c r="D63">
-        <v>0.04172251667279116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05913287404779256</v>
+      </c>
+      <c r="E63">
+        <v>0.0240035347620657</v>
+      </c>
+      <c r="F63">
+        <v>-0.003964003430425316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1115082444973729</v>
+        <v>0.1108823175694648</v>
       </c>
       <c r="C64">
-        <v>-0.01465243596394163</v>
+        <v>0.01151921172341353</v>
       </c>
       <c r="D64">
-        <v>0.03253670022123066</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04253070160530987</v>
+      </c>
+      <c r="E64">
+        <v>0.02229567573412504</v>
+      </c>
+      <c r="F64">
+        <v>-0.02614421680111853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1391510300745482</v>
+        <v>0.1509306031820046</v>
       </c>
       <c r="C65">
-        <v>-0.03259406248893852</v>
+        <v>0.03434626066152858</v>
       </c>
       <c r="D65">
-        <v>-0.04825179026278973</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04644711437727405</v>
+      </c>
+      <c r="E65">
+        <v>0.003881445629583321</v>
+      </c>
+      <c r="F65">
+        <v>-0.03671817746603452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1415121204043612</v>
+        <v>0.1243284694307517</v>
       </c>
       <c r="C66">
-        <v>-0.02273766390948999</v>
+        <v>0.01385475166662371</v>
       </c>
       <c r="D66">
-        <v>0.1151426330922398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1411636113474318</v>
+      </c>
+      <c r="E66">
+        <v>0.06460811382995268</v>
+      </c>
+      <c r="F66">
+        <v>-0.03402914145659782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06461110772048768</v>
+        <v>0.05735860458420289</v>
       </c>
       <c r="C67">
-        <v>-0.005456966885130855</v>
+        <v>0.002907792007156995</v>
       </c>
       <c r="D67">
-        <v>0.05211617134137458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05560908709344705</v>
+      </c>
+      <c r="E67">
+        <v>0.01678124869392184</v>
+      </c>
+      <c r="F67">
+        <v>0.02948800153506179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1030830409301614</v>
+        <v>0.1154983784155895</v>
       </c>
       <c r="C68">
-        <v>-0.02073997647806798</v>
+        <v>0.03269125009291868</v>
       </c>
       <c r="D68">
-        <v>-0.2728716083070331</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2608304929221116</v>
+      </c>
+      <c r="E68">
+        <v>-0.08769578739283669</v>
+      </c>
+      <c r="F68">
+        <v>0.001961792941503296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04062453680627071</v>
+        <v>0.03901361502139511</v>
       </c>
       <c r="C69">
-        <v>-0.001610450555457776</v>
+        <v>0.001275975736442005</v>
       </c>
       <c r="D69">
-        <v>0.007155061158868773</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007621219245103163</v>
+      </c>
+      <c r="E69">
+        <v>0.02336576176715612</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009511949876902343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06761569566664417</v>
+        <v>0.06685166278498043</v>
       </c>
       <c r="C70">
-        <v>0.02387049615848599</v>
+        <v>-0.02728344702898678</v>
       </c>
       <c r="D70">
-        <v>-0.01609415140472991</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02402519614501903</v>
+      </c>
+      <c r="E70">
+        <v>-0.03118015092935528</v>
+      </c>
+      <c r="F70">
+        <v>0.178662929799844</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1207383430334576</v>
+        <v>0.1353508973303375</v>
       </c>
       <c r="C71">
-        <v>-0.02418317730757222</v>
+        <v>0.03707649288008236</v>
       </c>
       <c r="D71">
-        <v>-0.2867841129194513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2721036941837218</v>
+      </c>
+      <c r="E71">
+        <v>-0.09796151416726302</v>
+      </c>
+      <c r="F71">
+        <v>-0.004235722406431509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1382950718382879</v>
+        <v>0.1427618709886478</v>
       </c>
       <c r="C72">
-        <v>-0.02702378951089076</v>
+        <v>0.0275179734586195</v>
       </c>
       <c r="D72">
-        <v>0.000661594214656899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005106601977278156</v>
+      </c>
+      <c r="E72">
+        <v>0.03585388982494857</v>
+      </c>
+      <c r="F72">
+        <v>-0.03062645752163176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2056925664540862</v>
+        <v>0.2045518811314772</v>
       </c>
       <c r="C73">
-        <v>-0.01622927285319468</v>
+        <v>0.01334924324135334</v>
       </c>
       <c r="D73">
-        <v>0.01626143483593681</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01634208364498017</v>
+      </c>
+      <c r="E73">
+        <v>0.06340553410279516</v>
+      </c>
+      <c r="F73">
+        <v>-0.04209135899133103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09297601324278265</v>
+        <v>0.09549293375299522</v>
       </c>
       <c r="C74">
-        <v>-0.01317092355290578</v>
+        <v>0.01370937685210651</v>
       </c>
       <c r="D74">
-        <v>0.02123567326097355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01522739174855867</v>
+      </c>
+      <c r="E74">
+        <v>0.04335116979275136</v>
+      </c>
+      <c r="F74">
+        <v>-0.05660171929176914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.134881174465439</v>
+        <v>0.1277769711831169</v>
       </c>
       <c r="C75">
-        <v>-0.02979905526367522</v>
+        <v>0.02863345662134558</v>
       </c>
       <c r="D75">
-        <v>0.02826327546940146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02817696391226693</v>
+      </c>
+      <c r="E75">
+        <v>0.05653415741291151</v>
+      </c>
+      <c r="F75">
+        <v>-0.02170160399781302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08426010396478499</v>
+        <v>0.08932457976848045</v>
       </c>
       <c r="C77">
-        <v>-0.01531030626865071</v>
+        <v>0.008169466681117187</v>
       </c>
       <c r="D77">
-        <v>0.09531160431023301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1139217394994972</v>
+      </c>
+      <c r="E77">
+        <v>0.04356453886365003</v>
+      </c>
+      <c r="F77">
+        <v>-0.03454943488220291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1045916489155611</v>
+        <v>0.1005400519452608</v>
       </c>
       <c r="C78">
-        <v>-0.04672776182974901</v>
+        <v>0.03953845277540144</v>
       </c>
       <c r="D78">
-        <v>0.09878297638361387</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1151766598828198</v>
+      </c>
+      <c r="E78">
+        <v>0.07663979778358009</v>
+      </c>
+      <c r="F78">
+        <v>-0.05041064409831101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1639707721222813</v>
+        <v>0.1639303887311445</v>
       </c>
       <c r="C79">
-        <v>-0.02351446396662709</v>
+        <v>0.0233550402312852</v>
       </c>
       <c r="D79">
-        <v>0.01429672925690201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01150820791668784</v>
+      </c>
+      <c r="E79">
+        <v>0.04407001974292123</v>
+      </c>
+      <c r="F79">
+        <v>-0.011470903759047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08690521833561263</v>
+        <v>0.08244818459469222</v>
       </c>
       <c r="C80">
-        <v>-0.001699134253062114</v>
+        <v>-0.0005506286729894931</v>
       </c>
       <c r="D80">
-        <v>0.04220063767812187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05504012324516359</v>
+      </c>
+      <c r="E80">
+        <v>0.03549944670101602</v>
+      </c>
+      <c r="F80">
+        <v>0.01973946715427442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1196852463095231</v>
+        <v>0.118290346603609</v>
       </c>
       <c r="C81">
-        <v>-0.0320168162587243</v>
+        <v>0.03206912388389395</v>
       </c>
       <c r="D81">
-        <v>0.02429140221726675</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01303393228433078</v>
+      </c>
+      <c r="E81">
+        <v>0.0547175103296445</v>
+      </c>
+      <c r="F81">
+        <v>-0.0195630041050831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1661596851445751</v>
+        <v>0.1661813738556982</v>
       </c>
       <c r="C82">
-        <v>-0.02419353508330583</v>
+        <v>0.02552596186428483</v>
       </c>
       <c r="D82">
-        <v>0.01410736381518926</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001631952949757672</v>
+      </c>
+      <c r="E82">
+        <v>0.0246500160526779</v>
+      </c>
+      <c r="F82">
+        <v>-0.08069873704837162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06811998624294181</v>
+        <v>0.05875838180393703</v>
       </c>
       <c r="C83">
-        <v>-0.006304441187165101</v>
+        <v>0.002985380915304063</v>
       </c>
       <c r="D83">
-        <v>0.03352117945490694</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05007390384665631</v>
+      </c>
+      <c r="E83">
+        <v>0.003482387320538383</v>
+      </c>
+      <c r="F83">
+        <v>0.02931178307038397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06454312105010175</v>
+        <v>0.05821930990851076</v>
       </c>
       <c r="C84">
-        <v>-0.01480279802589521</v>
+        <v>0.01085377837491525</v>
       </c>
       <c r="D84">
-        <v>0.06495427536689885</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07326052268534226</v>
+      </c>
+      <c r="E84">
+        <v>0.01508948300396239</v>
+      </c>
+      <c r="F84">
+        <v>-0.01326966192794458</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1368920060813296</v>
+        <v>0.1356367912807256</v>
       </c>
       <c r="C85">
-        <v>-0.02804760710581643</v>
+        <v>0.02857972771871664</v>
       </c>
       <c r="D85">
-        <v>0.01808277566969432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007378316085155708</v>
+      </c>
+      <c r="E85">
+        <v>0.03492379846920497</v>
+      </c>
+      <c r="F85">
+        <v>-0.0462873672548836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.104141357393013</v>
+        <v>0.09358325252383733</v>
       </c>
       <c r="C86">
-        <v>0.001697213922922876</v>
+        <v>-0.006225798059934499</v>
       </c>
       <c r="D86">
-        <v>-0.01189009290536276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04894172296781641</v>
+      </c>
+      <c r="E86">
+        <v>0.2423423694812354</v>
+      </c>
+      <c r="F86">
+        <v>0.9030876911140477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1003566189866625</v>
+        <v>0.09438535083149721</v>
       </c>
       <c r="C87">
-        <v>-0.02896659857608245</v>
+        <v>0.01942944661461998</v>
       </c>
       <c r="D87">
-        <v>0.06513733243387985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09543481810781013</v>
+      </c>
+      <c r="E87">
+        <v>-0.0518795673041498</v>
+      </c>
+      <c r="F87">
+        <v>-0.04683269056748583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06068336296033053</v>
+        <v>0.06049667745327712</v>
       </c>
       <c r="C88">
-        <v>-0.00515740058173049</v>
+        <v>0.002320998025022755</v>
       </c>
       <c r="D88">
-        <v>0.05467798452171718</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04926150983189145</v>
+      </c>
+      <c r="E88">
+        <v>0.02399039886165211</v>
+      </c>
+      <c r="F88">
+        <v>-0.01566506604647533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1149827506144209</v>
+        <v>0.1264187379309323</v>
       </c>
       <c r="C89">
-        <v>-0.001631944040854432</v>
+        <v>0.01248978718924145</v>
       </c>
       <c r="D89">
-        <v>-0.2614861366749923</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2423422071430894</v>
+      </c>
+      <c r="E89">
+        <v>-0.08900913601257954</v>
+      </c>
+      <c r="F89">
+        <v>0.0118853159816894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.131375451886684</v>
+        <v>0.1498702978284699</v>
       </c>
       <c r="C90">
-        <v>-0.02094700841210299</v>
+        <v>0.03381978914466197</v>
       </c>
       <c r="D90">
-        <v>-0.2750331694942546</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700544598330746</v>
+      </c>
+      <c r="E90">
+        <v>-0.1143430437243539</v>
+      </c>
+      <c r="F90">
+        <v>0.01231299107607479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1194595471102313</v>
+        <v>0.1217376761110163</v>
       </c>
       <c r="C91">
-        <v>-0.01909126679260836</v>
+        <v>0.02030682021949713</v>
       </c>
       <c r="D91">
-        <v>-0.007690570619560831</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01796420638810169</v>
+      </c>
+      <c r="E91">
+        <v>0.05380516533521028</v>
+      </c>
+      <c r="F91">
+        <v>0.0007972824591652007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1359024334741298</v>
+        <v>0.1463693611070002</v>
       </c>
       <c r="C92">
-        <v>-0.01066560409144969</v>
+        <v>0.02426530404202063</v>
       </c>
       <c r="D92">
-        <v>-0.3096864890063277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2912284943992984</v>
+      </c>
+      <c r="E92">
+        <v>-0.1028662256840729</v>
+      </c>
+      <c r="F92">
+        <v>0.01950741404620646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1353019030030258</v>
+        <v>0.1500452471584355</v>
       </c>
       <c r="C93">
-        <v>-0.01647966483590413</v>
+        <v>0.02872653592439706</v>
       </c>
       <c r="D93">
-        <v>-0.2703784831035823</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2655916021426769</v>
+      </c>
+      <c r="E93">
+        <v>-0.07704864987154164</v>
+      </c>
+      <c r="F93">
+        <v>0.002687532305484151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1355893052065643</v>
+        <v>0.1287463141836077</v>
       </c>
       <c r="C94">
-        <v>-0.02681206573959292</v>
+        <v>0.02512800662153927</v>
       </c>
       <c r="D94">
-        <v>0.04267742844354586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03944845104100467</v>
+      </c>
+      <c r="E94">
+        <v>0.05628648094489853</v>
+      </c>
+      <c r="F94">
+        <v>-0.0351352662404114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.126660010331016</v>
+        <v>0.1259667153046432</v>
       </c>
       <c r="C95">
-        <v>-0.01048794740902619</v>
+        <v>0.003370681088019204</v>
       </c>
       <c r="D95">
-        <v>0.07359228346422408</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09728590716694692</v>
+      </c>
+      <c r="E95">
+        <v>0.05282308339577976</v>
+      </c>
+      <c r="F95">
+        <v>0.005636571023291449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1157677361762504</v>
+        <v>0.1105936312940179</v>
       </c>
       <c r="C96">
-        <v>0.9874800275034898</v>
+        <v>-0.9869869229209284</v>
       </c>
       <c r="D96">
-        <v>-0.009478555762991125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05046579278726355</v>
+      </c>
+      <c r="E96">
+        <v>0.05244693265904198</v>
+      </c>
+      <c r="F96">
+        <v>-0.04295711416470741</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.192288339010461</v>
+        <v>0.1917901735976516</v>
       </c>
       <c r="C97">
-        <v>0.006609118817333479</v>
+        <v>-0.006508710383950436</v>
       </c>
       <c r="D97">
-        <v>-0.01420585375404036</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0205079429271096</v>
+      </c>
+      <c r="E97">
+        <v>0.02127073232752701</v>
+      </c>
+      <c r="F97">
+        <v>0.09125103232369584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2004153990259979</v>
+        <v>0.2062741106276115</v>
       </c>
       <c r="C98">
-        <v>-0.01028796146173855</v>
+        <v>0.007335561512975184</v>
       </c>
       <c r="D98">
-        <v>0.01264078347509318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01313007272172712</v>
+      </c>
+      <c r="E98">
+        <v>-0.07504445851426726</v>
+      </c>
+      <c r="F98">
+        <v>0.09227550827808721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05648621594424644</v>
+        <v>0.05486796593641871</v>
       </c>
       <c r="C99">
-        <v>0.002071970471122011</v>
+        <v>-0.004360625818227518</v>
       </c>
       <c r="D99">
-        <v>0.0233652361826772</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03843829612640411</v>
+      </c>
+      <c r="E99">
+        <v>0.02151868250170457</v>
+      </c>
+      <c r="F99">
+        <v>-0.003453853671091351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1429175720080818</v>
+        <v>0.1289267483109547</v>
       </c>
       <c r="C100">
-        <v>0.03773665437251482</v>
+        <v>-0.05279739587794842</v>
       </c>
       <c r="D100">
-        <v>0.42682378640999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3512389556362926</v>
+      </c>
+      <c r="E100">
+        <v>-0.8824006420271167</v>
+      </c>
+      <c r="F100">
+        <v>0.1682486719650741</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02612205776144625</v>
+        <v>0.0288246232470816</v>
       </c>
       <c r="C101">
-        <v>-0.009946814912440469</v>
+        <v>0.008845089005471714</v>
       </c>
       <c r="D101">
-        <v>0.02019873596652336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03087261308581353</v>
+      </c>
+      <c r="E101">
+        <v>0.01349918673545556</v>
+      </c>
+      <c r="F101">
+        <v>0.01364951518751152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
